--- a/median.xlsx
+++ b/median.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woohyung Kim\Desktop\R_projects\0.Research\2024-2_Interactive_Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F73F667-056F-44E0-8122-E34CD9292A16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8177D053-5C4B-46C4-A9FD-B253C2C474C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="280">
   <si>
     <t>○ 통계표ID</t>
   </si>
@@ -970,6 +970,10 @@
   </si>
   <si>
     <t>강원도 고성군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1386,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1935,7 +1939,7 @@
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>22310</v>
+        <v>22510</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>217</v>
@@ -2034,7 +2038,7 @@
     </row>
     <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>23310</v>
+        <v>23510</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>226</v>
@@ -2045,7 +2049,7 @@
     </row>
     <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>23320</v>
+        <v>23520</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>227</v>
@@ -2210,7 +2214,7 @@
     </row>
     <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>26310</v>
+        <v>26510</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>242</v>
@@ -3628,440 +3632,440 @@
       </c>
     </row>
     <row r="204" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
-        <v>37011</v>
+      <c r="A204" s="7">
+        <v>37010</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C204" s="2">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
-        <v>37012</v>
+        <v>37011</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C205" s="2">
-        <v>46.6</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
-        <v>37020</v>
+        <v>37012</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="C206" s="2">
-        <v>48.5</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>37030</v>
+        <v>37020</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C207" s="2">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>37040</v>
+        <v>37030</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C208" s="2">
-        <v>49.5</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
-        <v>37050</v>
+        <v>37040</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C209" s="2">
-        <v>39.6</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>37060</v>
+        <v>37050</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C210" s="2">
-        <v>51.9</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
-        <v>37070</v>
+        <v>37060</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C211" s="2">
-        <v>52.7</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
-        <v>37080</v>
+        <v>37070</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C212" s="2">
-        <v>55.2</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
-        <v>37090</v>
+        <v>37080</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C213" s="2">
-        <v>55</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
-        <v>37100</v>
+        <v>37090</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C214" s="2">
-        <v>42.2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>37310</v>
+        <v>37100</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C215" s="2">
-        <v>60.8</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>37320</v>
+        <v>37510</v>
       </c>
       <c r="B216" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C216" s="2">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>37520</v>
+      </c>
+      <c r="B217" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C217" s="2">
         <v>61.6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="7">
-        <v>37330</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C217" s="2">
-        <v>59.8</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
-        <v>37340</v>
+        <v>37530</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C218" s="2">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
-        <v>37350</v>
+        <v>37540</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C219" s="2">
-        <v>59</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
-        <v>37360</v>
+        <v>37550</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C220" s="2">
-        <v>59.3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
-        <v>37370</v>
+        <v>37560</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C221" s="2">
-        <v>54.9</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
-        <v>37380</v>
+        <v>37570</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C222" s="2">
-        <v>56.8</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
-        <v>37390</v>
+        <v>37580</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C223" s="2">
-        <v>43.8</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
-        <v>37400</v>
+        <v>37590</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C224" s="2">
-        <v>52.8</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
-        <v>37410</v>
+        <v>37600</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C225" s="2">
-        <v>59.6</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
-        <v>37420</v>
+        <v>37610</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C226" s="2">
-        <v>52.7</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
-        <v>37430</v>
+        <v>37620</v>
       </c>
       <c r="B227" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C227" s="2">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="7">
+        <v>37630</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C228" s="2">
         <v>53.4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
-        <v>38030</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C228" s="2">
-        <v>43.9</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
-        <v>38050</v>
+        <v>38030</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C229" s="2">
-        <v>47.2</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
-        <v>38060</v>
+        <v>38050</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C230" s="2">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
-        <v>38070</v>
+        <v>38060</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C231" s="2">
-        <v>41.7</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
-        <v>38080</v>
+        <v>38070</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C232" s="2">
-        <v>53.6</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
-        <v>38090</v>
+        <v>38080</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C233" s="2">
-        <v>41.1</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
-        <v>38100</v>
+        <v>38090</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C234" s="2">
-        <v>42.3</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>38111</v>
+        <v>38100</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="C235" s="2">
-        <v>43.6</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
-        <v>38112</v>
+        <v>38111</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C236" s="2">
-        <v>41.8</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
-        <v>38113</v>
+        <v>38112</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C237" s="2">
-        <v>48.6</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
-        <v>38114</v>
+        <v>38113</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C238" s="2">
-        <v>46.8</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
-        <v>38115</v>
+        <v>38114</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C239" s="2">
-        <v>42.2</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
-        <v>38310</v>
+        <v>38115</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="C240" s="2">
-        <v>58.7</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
+        <v>38310</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C241" s="2">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
         <v>38320</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B242" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C242" s="2">
         <v>49.7</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="7">
-        <v>38330</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C242" s="2">
-        <v>54.8</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
-        <v>38340</v>
+        <v>38330</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="C243" s="2">
         <v>54.8</v>
@@ -4069,89 +4073,100 @@
     </row>
     <row r="244" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
-        <v>38350</v>
+        <v>38340</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>158</v>
+        <v>277</v>
       </c>
       <c r="C244" s="2">
-        <v>58.8</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
-        <v>38360</v>
+        <v>38350</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C245" s="2">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
-        <v>38370</v>
+        <v>38360</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C246" s="2">
-        <v>59</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
-        <v>38380</v>
+        <v>38370</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C247" s="2">
-        <v>57.1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
-        <v>38390</v>
+        <v>38380</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C248" s="2">
-        <v>52.4</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
+        <v>38390</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C249" s="2">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="7">
         <v>38400</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B250" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C250" s="2">
         <v>60.2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+    <row r="251" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3">
         <v>39010</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B251" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C251" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="4">
+    <row r="252" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="4">
         <v>39020</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B252" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C252" s="2">
         <v>46.3</v>
       </c>
     </row>
